--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1338.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1338.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.104544772987958</v>
+        <v>1.115563869476318</v>
       </c>
       <c r="B1">
-        <v>2.601079984720052</v>
+        <v>2.433353424072266</v>
       </c>
       <c r="C1">
-        <v>4.574457380353462</v>
+        <v>9.735664367675781</v>
       </c>
       <c r="D1">
-        <v>2.456385250504516</v>
+        <v>2.205146551132202</v>
       </c>
       <c r="E1">
-        <v>1.197508210351936</v>
+        <v>1.274863719940186</v>
       </c>
     </row>
   </sheetData>
